--- a/data/source/industries/iron_and_steel_forgings.xlsx
+++ b/data/source/industries/iron_and_steel_forgings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\coding_projects\bls_data\data\output\04_iron and steel forgings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\coding_projects\bls_data\data\source\industries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DD4B00-6005-49D4-BB4E-58FB03B26210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E5F57B-75AE-466A-8165-6392CA6C7980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30000" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,9 +495,18 @@
       <c r="C3">
         <v>2.7</v>
       </c>
+      <c r="D3">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E3">
+        <v>114.11</v>
+      </c>
       <c r="F3">
         <v>2.86</v>
       </c>
+      <c r="G3">
+        <v>39.9</v>
+      </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
@@ -509,26 +518,35 @@
       </c>
       <c r="K3">
         <v>3.2</v>
+      </c>
+      <c r="L3">
+        <v>0.8</v>
+      </c>
+      <c r="M3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1960</v>
       </c>
+      <c r="B4">
+        <v>43.2</v>
+      </c>
       <c r="C4">
         <v>2.6</v>
       </c>
       <c r="D4">
-        <v>37.299999999999997</v>
+        <v>34.5</v>
       </c>
       <c r="E4">
-        <v>114.11</v>
+        <v>115.74</v>
       </c>
       <c r="F4">
         <v>2.93</v>
       </c>
       <c r="G4">
-        <v>39.9</v>
+        <v>39.5</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -536,11 +554,17 @@
       <c r="I4">
         <v>2.8</v>
       </c>
+      <c r="J4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K4">
+        <v>3.7</v>
+      </c>
       <c r="L4">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="M4">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -548,71 +572,122 @@
         <v>1961</v>
       </c>
       <c r="B5">
-        <v>43.2</v>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="C5">
+        <v>2.4</v>
+      </c>
+      <c r="D5">
+        <v>31.3</v>
+      </c>
+      <c r="E5">
+        <v>119.1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>39.700000000000003</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
+      <c r="I5">
+        <v>2.8</v>
+      </c>
       <c r="J5">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="K5">
-        <v>3.7</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L5">
+        <v>0.6</v>
+      </c>
+      <c r="M5">
+        <v>3.3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1962</v>
       </c>
+      <c r="B6">
+        <v>41.2</v>
+      </c>
       <c r="C6">
         <v>2.4</v>
       </c>
       <c r="D6">
-        <v>34.5</v>
+        <v>33.1</v>
       </c>
       <c r="E6">
-        <v>115.74</v>
+        <v>126.48</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G6">
-        <v>39.5</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
       </c>
       <c r="I6">
-        <v>2.8</v>
+        <v>2.5</v>
+      </c>
+      <c r="J6">
+        <v>1.2</v>
+      </c>
+      <c r="K6">
+        <v>2.5</v>
       </c>
       <c r="L6">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="M6">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1963</v>
       </c>
+      <c r="B7">
+        <v>41.4</v>
+      </c>
       <c r="C7">
         <v>2.4</v>
       </c>
+      <c r="D7">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>131.93</v>
+      </c>
       <c r="F7">
-        <v>3.1</v>
+        <v>3.21</v>
+      </c>
+      <c r="G7">
+        <v>41.1</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
       </c>
       <c r="I7">
+        <v>2.4</v>
+      </c>
+      <c r="J7">
+        <v>1.4</v>
+      </c>
+      <c r="K7">
         <v>2.5</v>
       </c>
-      <c r="J7">
+      <c r="L7">
+        <v>0.7</v>
+      </c>
+      <c r="M7">
         <v>1.2</v>
-      </c>
-      <c r="K7">
-        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -620,34 +695,40 @@
         <v>1964</v>
       </c>
       <c r="B8">
-        <v>39.299999999999997</v>
+        <v>41.6</v>
       </c>
       <c r="C8">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D8">
-        <v>31.3</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="E8">
-        <v>119.1</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="F8">
-        <v>3.21</v>
+        <v>3.31</v>
+      </c>
+      <c r="G8">
+        <v>41.6</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
       </c>
       <c r="I8">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="J8">
+        <v>1.6</v>
+      </c>
+      <c r="K8">
+        <v>2.5</v>
+      </c>
+      <c r="L8">
+        <v>0.8</v>
+      </c>
+      <c r="M8">
         <v>1.2</v>
-      </c>
-      <c r="L8">
-        <v>0.6</v>
-      </c>
-      <c r="M8">
-        <v>3.3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -655,66 +736,81 @@
         <v>1965</v>
       </c>
       <c r="B9">
-        <v>41.2</v>
+        <v>44.1</v>
       </c>
       <c r="C9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D9">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="E9">
+        <v>148.86000000000001</v>
+      </c>
+      <c r="F9">
+        <v>3.47</v>
+      </c>
+      <c r="G9">
+        <v>42.9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>2.5</v>
+      </c>
+      <c r="J9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F9">
-        <v>3.31</v>
-      </c>
-      <c r="G9">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9">
-        <v>2.8</v>
-      </c>
       <c r="K9">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L9">
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M9">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1966</v>
       </c>
+      <c r="B10">
+        <v>49.6</v>
+      </c>
       <c r="C10">
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="D10">
-        <v>33.1</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E10">
-        <v>126.48</v>
+        <v>154.51</v>
       </c>
       <c r="F10">
-        <v>3.47</v>
+        <v>3.61</v>
       </c>
       <c r="G10">
-        <v>40.799999999999997</v>
+        <v>42.8</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
       </c>
       <c r="I10">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="J10">
-        <v>1.4</v>
+        <v>2.9</v>
+      </c>
+      <c r="K10">
+        <v>2.8</v>
       </c>
       <c r="L10">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="M10">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -722,33 +818,39 @@
         <v>1967</v>
       </c>
       <c r="B11">
-        <v>41.4</v>
+        <v>50.2</v>
       </c>
       <c r="C11">
-        <v>2.6</v>
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>40.6</v>
       </c>
       <c r="E11">
-        <v>131.93</v>
+        <v>150.06</v>
       </c>
       <c r="F11">
-        <v>3.61</v>
+        <v>3.66</v>
       </c>
       <c r="G11">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
       </c>
       <c r="I11">
-        <v>3.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J11">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="K11">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L11">
+        <v>1.4</v>
+      </c>
+      <c r="M11">
         <v>0.8</v>
       </c>
     </row>
@@ -756,29 +858,41 @@
       <c r="A12">
         <v>1968</v>
       </c>
+      <c r="B12">
+        <v>49.5</v>
+      </c>
       <c r="C12">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="E12">
+        <v>162.68</v>
       </c>
       <c r="F12">
-        <v>3.66</v>
+        <v>3.92</v>
       </c>
       <c r="G12">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
       </c>
       <c r="I12">
-        <v>2.2999999999999998</v>
+        <v>2.7</v>
+      </c>
+      <c r="J12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K12">
+        <v>2.7</v>
       </c>
       <c r="L12">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="M12">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -786,69 +900,81 @@
         <v>1969</v>
       </c>
       <c r="B13">
-        <v>41.6</v>
+        <v>50.6</v>
       </c>
       <c r="C13">
-        <v>3.1</v>
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>40.700000000000003</v>
       </c>
       <c r="E13">
-        <v>137.69999999999999</v>
+        <v>175.55</v>
       </c>
       <c r="F13">
-        <v>3.92</v>
+        <v>4.16</v>
       </c>
       <c r="G13">
-        <v>42.9</v>
+        <v>42.2</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
       </c>
       <c r="I13">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="J13">
-        <v>2.2000000000000002</v>
+        <v>2.9</v>
       </c>
       <c r="K13">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L13">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="M13">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1970</v>
       </c>
+      <c r="B14">
+        <v>47.4</v>
+      </c>
       <c r="C14">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D14">
-        <v>33.700000000000003</v>
+        <v>37.6</v>
       </c>
       <c r="E14">
-        <v>148.86000000000001</v>
+        <v>172.8</v>
       </c>
       <c r="F14">
-        <v>4.16</v>
+        <v>4.32</v>
       </c>
       <c r="G14">
-        <v>42.8</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
       </c>
       <c r="I14">
-        <v>3.4</v>
+        <v>2.8</v>
+      </c>
+      <c r="J14">
+        <v>1.7</v>
+      </c>
+      <c r="K14">
+        <v>4.2</v>
       </c>
       <c r="L14">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="M14">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -856,63 +982,81 @@
         <v>1971</v>
       </c>
       <c r="B15">
-        <v>44.1</v>
+        <v>44.9</v>
       </c>
       <c r="C15">
-        <v>2.9</v>
+        <v>2.6</v>
+      </c>
+      <c r="D15">
+        <v>35.799999999999997</v>
       </c>
       <c r="E15">
-        <v>154.51</v>
+        <v>183.41</v>
       </c>
       <c r="F15">
-        <v>4.32</v>
+        <v>4.62</v>
       </c>
       <c r="G15">
-        <v>41</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
       </c>
       <c r="I15">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="J15">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="K15">
-        <v>2.2000000000000002</v>
+        <v>3.1</v>
       </c>
       <c r="L15">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="M15">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1972</v>
       </c>
+      <c r="B16">
+        <v>45.7</v>
+      </c>
+      <c r="C16">
+        <v>2.4</v>
+      </c>
       <c r="D16">
-        <v>36.200000000000003</v>
+        <v>37.1</v>
       </c>
       <c r="E16">
-        <v>150.06</v>
+        <v>209.66</v>
+      </c>
+      <c r="F16">
+        <v>5.04</v>
       </c>
       <c r="G16">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
       </c>
+      <c r="I16">
+        <v>2.9</v>
+      </c>
       <c r="J16">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="K16">
-        <v>2.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L16">
-        <v>1.8</v>
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -920,255 +1064,81 @@
         <v>1973</v>
       </c>
       <c r="B17">
-        <v>49.6</v>
+        <v>49.8</v>
       </c>
       <c r="C17">
-        <v>2.6</v>
+        <v>2.7</v>
+      </c>
+      <c r="D17">
+        <v>40.799999999999997</v>
       </c>
       <c r="E17">
-        <v>162.68</v>
+        <v>236.75</v>
       </c>
       <c r="F17">
-        <v>4.62</v>
+        <v>5.43</v>
       </c>
       <c r="G17">
-        <v>42.2</v>
+        <v>43.6</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
       </c>
       <c r="I17">
-        <v>2.4</v>
+        <v>3.1</v>
+      </c>
+      <c r="J17">
+        <v>2.7</v>
+      </c>
+      <c r="K17">
+        <v>2.8</v>
       </c>
       <c r="L17">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="M17">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1974</v>
       </c>
+      <c r="B18">
+        <v>52.1</v>
+      </c>
       <c r="C18">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>40.799999999999997</v>
+        <v>42.4</v>
       </c>
       <c r="E18">
-        <v>175.55</v>
+        <v>246.34</v>
       </c>
       <c r="F18">
-        <v>5.04</v>
+        <v>5.81</v>
       </c>
       <c r="G18">
-        <v>40</v>
+        <v>42.4</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
       </c>
       <c r="I18">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="J18">
-        <v>2.2000000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>3.1</v>
+      </c>
+      <c r="L18">
+        <v>1.6</v>
       </c>
       <c r="M18">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>50.2</v>
-      </c>
-      <c r="C19">
-        <v>2.7</v>
-      </c>
-      <c r="E19">
-        <v>172.8</v>
-      </c>
-      <c r="F19">
-        <v>5.43</v>
-      </c>
-      <c r="I19">
-        <v>3.1</v>
-      </c>
-      <c r="K19">
-        <v>2.7</v>
-      </c>
-      <c r="L19">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>40.6</v>
-      </c>
-      <c r="E20">
-        <v>183.41</v>
-      </c>
-      <c r="F20">
-        <v>5.81</v>
-      </c>
-      <c r="G20">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="J20">
-        <v>2.9</v>
-      </c>
-      <c r="K20">
-        <v>3.4</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>49.5</v>
-      </c>
-      <c r="E21">
-        <v>209.66</v>
-      </c>
-      <c r="G21">
-        <v>41.6</v>
-      </c>
-      <c r="I21">
-        <v>3.3</v>
-      </c>
-      <c r="K21">
-        <v>4.2</v>
-      </c>
-      <c r="L21">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="E22">
-        <v>236.75</v>
-      </c>
-      <c r="G22">
-        <v>43.6</v>
-      </c>
-      <c r="J22">
-        <v>1.7</v>
-      </c>
-      <c r="L22">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>50.6</v>
-      </c>
-      <c r="E23">
-        <v>246.34</v>
-      </c>
-      <c r="K23">
-        <v>3.1</v>
-      </c>
-      <c r="M23">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D24">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="G24">
-        <v>42.4</v>
-      </c>
-      <c r="K24">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>47.4</v>
-      </c>
-      <c r="J25">
-        <v>1.2</v>
-      </c>
-      <c r="K25">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D26">
-        <v>37.6</v>
-      </c>
-      <c r="J26">
-        <v>2.1</v>
-      </c>
-      <c r="K26">
-        <v>3.1</v>
-      </c>
-      <c r="M26">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>44.9</v>
-      </c>
-      <c r="D28">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="J28">
-        <v>2.7</v>
-      </c>
-      <c r="M28">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>45.7</v>
-      </c>
-      <c r="J29">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D30">
-        <v>37.1</v>
-      </c>
-      <c r="M30">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>49.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D32">
-        <v>40.799999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>52.1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D34">
-        <v>42.4</v>
       </c>
     </row>
   </sheetData>
